--- a/data/leaguedata1.xlsx
+++ b/data/leaguedata1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -31,55 +31,118 @@
     <t>Competition</t>
   </si>
   <si>
+    <t>Winnings</t>
+  </si>
+  <si>
     <t>Dave McMinn</t>
   </si>
   <si>
+    <t>18 + 20</t>
+  </si>
+  <si>
+    <t>Single Stableford 5th April</t>
+  </si>
+  <si>
+    <t>£24.48</t>
+  </si>
+  <si>
     <t>Paul Mellor</t>
   </si>
   <si>
+    <t>19 + 17</t>
+  </si>
+  <si>
+    <t>£16.32</t>
+  </si>
+  <si>
     <t>Brain Combe</t>
   </si>
   <si>
+    <t>14 + 21</t>
+  </si>
+  <si>
     <t>Paul Owens</t>
   </si>
   <si>
+    <t>17 +18</t>
+  </si>
+  <si>
     <t>Jim Hall</t>
   </si>
   <si>
+    <t>16 + 17</t>
+  </si>
+  <si>
     <t>Jay Dempsey</t>
   </si>
   <si>
+    <t>11 + 21</t>
+  </si>
+  <si>
     <t>Neil Bearne</t>
   </si>
   <si>
+    <t>14 + 16</t>
+  </si>
+  <si>
     <t>Jay Francis</t>
   </si>
   <si>
+    <t>15 + 15</t>
+  </si>
+  <si>
     <t>Andy Mee</t>
   </si>
   <si>
+    <t>18 + 12</t>
+  </si>
+  <si>
     <t>Simon Peers</t>
   </si>
   <si>
+    <t>13 + 14</t>
+  </si>
+  <si>
     <t>Tony Doyle</t>
   </si>
   <si>
+    <t>15 + 12</t>
+  </si>
+  <si>
     <t>Chris Mausdsley</t>
   </si>
   <si>
+    <t>16 + 11</t>
+  </si>
+  <si>
     <t>Jim Walker</t>
   </si>
   <si>
+    <t>16 + 10</t>
+  </si>
+  <si>
     <t>Craig Pickerill</t>
   </si>
   <si>
+    <t>11 + 13</t>
+  </si>
+  <si>
     <t>Mark Gregory</t>
   </si>
   <si>
+    <t>12 + 11</t>
+  </si>
+  <si>
     <t>Nick Guest</t>
   </si>
   <si>
+    <t>9 + 12</t>
+  </si>
+  <si>
     <t>Ben Gregory</t>
+  </si>
+  <si>
+    <t>4 + 6</t>
   </si>
 </sst>
 </file>
@@ -237,7 +300,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -259,13 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -274,10 +331,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1360,16 +1420,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="43.0078" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43" style="1" customWidth="1"/>
     <col min="2" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3516" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.3516" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1391,286 +1451,379 @@
       <c r="F1" t="s" s="4">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6">
         <v>38</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8">
+      <c r="C2" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>17</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7">
         <v>36</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8">
+      <c r="C3" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>16</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7">
         <v>35</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8">
+      <c r="C4" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
         <v>3</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>15</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B5" s="8">
-        <v>35</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7">
         <v>33</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8">
+      <c r="C6" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7">
         <v>5</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>13</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9">
         <v>32</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11">
+      <c r="C7" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9">
         <v>6</v>
       </c>
       <c r="E7" s="11">
         <v>12</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7">
         <v>30</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8">
+      <c r="C8" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
         <v>7</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>11</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7">
         <v>30</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8">
+      <c r="C9" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7">
         <v>8</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>10</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7">
         <v>30</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8">
+      <c r="C10" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7">
         <v>9</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>9</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>37</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7">
         <v>10</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>8</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8">
-        <v>37</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7">
         <v>11</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>7</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7">
         <v>27</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8">
+      <c r="C13" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7">
         <v>12</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>6</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7">
         <v>26</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8">
+      <c r="C14" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7">
         <v>13</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>5</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8">
+        <v>36</v>
+      </c>
+      <c r="B15" s="7">
         <v>24</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8">
+      <c r="C15" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
         <v>14</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>4</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="B16" s="8">
+        <v>38</v>
+      </c>
+      <c r="B16" s="7">
         <v>23</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8">
+      <c r="C16" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7">
         <v>15</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>3</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="B17" s="7">
         <v>21</v>
       </c>
-      <c r="B17" s="8">
-        <v>21</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8">
+      <c r="C17" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="D17" s="7">
         <v>16</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>2</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="B18" s="8">
+        <v>42</v>
+      </c>
+      <c r="B18" s="7">
         <v>10</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8">
+      <c r="C18" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D18" s="7">
         <v>17</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>1</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
